--- a/Media/tags.xlsx
+++ b/Media/tags.xlsx
@@ -134,6 +134,54 @@
   </x:si>
   <x:si>
     <x:t>Лукасевич Михаил Лукасевич</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.10.2025 19:34:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.10.2025 19:34:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.10.2025 19:35:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Скалин Александр Скалин</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.10.2025 19:36:13</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.10.2025 18:25:28</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.10.2025 18:25:56</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Леонов Роман Леонов</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.10.2025 18:27:05</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Коваленко Михаил Коваленко</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.10.2025 18:27:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29.10.2025 18:29:21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.10.2025 16:59:26</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ЕгорикЧорт Долбик ЕгорикЧорт</x:t>
+  </x:si>
+  <x:si>
+    <x:t>30.10.2025 16:59:45</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Раневская К Раневская</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -484,7 +532,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C19"/>
+  <x:dimension ref="A1:C30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -704,6 +752,127 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C29" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
